--- a/biology/Botanique/Corylopsis/Corylopsis.xlsx
+++ b/biology/Botanique/Corylopsis/Corylopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Corylopsis (Winter-hazel en anglais) regroupe près de 30 espèces de plantes buissonnantes, de la famille des Hamamelidaceae, natives de l'Est de l'Asie, et souvent endémiques de Chine avec aussi quelques endémiques au Japon, en Corée, et dans l'Himalaya.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils atteignent deux à six mètres de haut.
 Feuilles de 4-20 cm long et 3-15 cm large.
@@ -544,9 +558,11 @@
           <t>Espèces de Corylopsis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon [réf. nécessaire] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon [réf. nécessaire] :
 Corylopsis alnifolia
 Corylopsis brevistyla
 Corylopsis glabrescens (Japon, Corée)
@@ -571,7 +587,7 @@
 Corylopsis willmottiae
 Corylopsis yui
 Corylopsis yunnanensis
-Selon NCBI  (3 Sep 2010)[2] :
+Selon NCBI  (3 Sep 2010) :
 Corylopsis coreana
 Corylopsis glabrescens
 Corylopsis glabrescens f. gotoana
@@ -586,9 +602,43 @@
 Corylopsis stenopetala
 Corylopsis veitchiana
 Corylopsis willmottiae
-Corylopsis yunnanensis
-Cultures et usages
-Ils ont été diffusés par des pépiniéristes pour l'ornementation des jardins, en raison de leur floraison précoce.
+Corylopsis yunnanensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corylopsis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corylopsis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces de Corylopsis</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cultures et usages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ont été diffusés par des pépiniéristes pour l'ornementation des jardins, en raison de leur floraison précoce.
 Les lourdes neiges et les gelées tardives peuvent les endommager.
 à l'ombre ou demi-ombre, protégé des vents forts.
 Ce sont des plantes de milieux acides, mais qui apprécient un humus riche.
